--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>31741.3211</v>
       </c>
       <c r="G2" t="n">
-        <v>-1864641.244709276</v>
+        <v>4.331500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>10203.6828</v>
       </c>
       <c r="G3" t="n">
-        <v>-1864641.244709276</v>
+        <v>4.329000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>12000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1864641.244709276</v>
+        <v>4.339</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -536,6 +543,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,7 +565,7 @@
         <v>17.2584</v>
       </c>
       <c r="G5" t="n">
-        <v>-1864623.986309276</v>
+        <v>4.337</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -579,6 +587,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +609,7 @@
         <v>5000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1869623.986309276</v>
+        <v>4.339499999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-1869613.986309276</v>
+        <v>4.342499999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -661,6 +671,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,7 +693,7 @@
         <v>7606.8321</v>
       </c>
       <c r="G8" t="n">
-        <v>-1877220.818409276</v>
+        <v>4.345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -702,6 +713,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,7 +735,7 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>-1877220.818409276</v>
+        <v>4.345499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -743,6 +755,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,7 +777,7 @@
         <v>86120</v>
       </c>
       <c r="G10" t="n">
-        <v>-1963340.818409276</v>
+        <v>4.339999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -784,6 +797,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,7 +819,7 @@
         <v>19186.3226</v>
       </c>
       <c r="G11" t="n">
-        <v>-1963340.818409276</v>
+        <v>4.332999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -825,6 +839,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,7 +861,7 @@
         <v>94657.1869</v>
       </c>
       <c r="G12" t="n">
-        <v>-1868683.631509276</v>
+        <v>4.329499999999999</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -868,6 +883,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -889,7 +905,7 @@
         <v>32777</v>
       </c>
       <c r="G13" t="n">
-        <v>-1901460.631509276</v>
+        <v>4.329499999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -909,6 +925,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -930,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>-1901360.631509276</v>
+        <v>4.3285</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -950,6 +967,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -971,7 +989,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-1901460.631509276</v>
+        <v>4.3255</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -991,6 +1009,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1012,7 +1031,7 @@
         <v>5237</v>
       </c>
       <c r="G16" t="n">
-        <v>-1896223.631509276</v>
+        <v>4.323</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1032,6 +1051,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1053,7 +1073,7 @@
         <v>1046450.599</v>
       </c>
       <c r="G17" t="n">
-        <v>-849773.0325092763</v>
+        <v>4.322</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1073,6 +1093,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1094,7 +1115,7 @@
         <v>7000</v>
       </c>
       <c r="G18" t="n">
-        <v>-842773.0325092763</v>
+        <v>4.3235</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1114,6 +1135,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1135,7 +1157,7 @@
         <v>231122.8106</v>
       </c>
       <c r="G19" t="n">
-        <v>-611650.2219092763</v>
+        <v>4.326</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1155,6 +1177,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1176,7 +1199,7 @@
         <v>359460.7954</v>
       </c>
       <c r="G20" t="n">
-        <v>-252189.4265092763</v>
+        <v>4.3275</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1196,6 +1219,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1217,7 +1241,7 @@
         <v>60000</v>
       </c>
       <c r="G21" t="n">
-        <v>-192189.4265092763</v>
+        <v>4.3325</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1237,6 +1261,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,7 +1283,7 @@
         <v>109829.6164</v>
       </c>
       <c r="G22" t="n">
-        <v>-82359.81010927632</v>
+        <v>4.338500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1278,6 +1303,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1299,7 +1325,7 @@
         <v>37293.021</v>
       </c>
       <c r="G23" t="n">
-        <v>-119652.8311092763</v>
+        <v>4.3455</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1319,6 +1345,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,7 +1367,7 @@
         <v>2033.3502</v>
       </c>
       <c r="G24" t="n">
-        <v>-119652.8311092763</v>
+        <v>4.352000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1360,6 +1387,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1381,7 +1409,7 @@
         <v>735310.9674</v>
       </c>
       <c r="G25" t="n">
-        <v>615658.1362907237</v>
+        <v>4.358000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1401,6 +1429,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,7 +1451,7 @@
         <v>103444.7236</v>
       </c>
       <c r="G26" t="n">
-        <v>719102.8598907237</v>
+        <v>4.366500000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1442,6 +1471,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1463,7 +1493,7 @@
         <v>147240.3646</v>
       </c>
       <c r="G27" t="n">
-        <v>571862.4952907237</v>
+        <v>4.378500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1483,6 +1513,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1504,7 +1535,7 @@
         <v>416949.5081</v>
       </c>
       <c r="G28" t="n">
-        <v>988812.0033907237</v>
+        <v>4.391500000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1524,6 +1555,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1545,7 +1577,7 @@
         <v>960478.1181</v>
       </c>
       <c r="G29" t="n">
-        <v>28333.88529072376</v>
+        <v>4.399000000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1565,6 +1597,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="n">
-        <v>28298.88529072376</v>
+        <v>4.410000000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1606,6 +1639,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1627,7 +1661,7 @@
         <v>22344.4285</v>
       </c>
       <c r="G31" t="n">
-        <v>28298.88529072376</v>
+        <v>4.422500000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1647,6 +1681,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1668,7 +1703,7 @@
         <v>77576.94160000001</v>
       </c>
       <c r="G32" t="n">
-        <v>105875.8268907238</v>
+        <v>4.436000000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1688,6 +1723,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1709,7 +1745,7 @@
         <v>14947.0225</v>
       </c>
       <c r="G33" t="n">
-        <v>120822.8493907238</v>
+        <v>4.448500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1729,6 +1765,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1750,7 +1787,7 @@
         <v>167288.4828</v>
       </c>
       <c r="G34" t="n">
-        <v>288111.3321907237</v>
+        <v>4.459500000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1770,6 +1807,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1791,7 +1829,7 @@
         <v>215578.5800678959</v>
       </c>
       <c r="G35" t="n">
-        <v>503689.9122586197</v>
+        <v>4.467500000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1811,6 +1849,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1832,7 +1871,7 @@
         <v>538557.9690957447</v>
       </c>
       <c r="G36" t="n">
-        <v>-34868.05683712498</v>
+        <v>4.484000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1852,6 +1891,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1873,13 +1913,13 @@
         <v>234350.9521321041</v>
       </c>
       <c r="G37" t="n">
-        <v>-269219.0089692291</v>
+        <v>4.499000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
@@ -1887,11 +1927,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>1.043275862068966</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.002298850574713</v>
       </c>
     </row>
     <row r="38">
@@ -1914,26 +1957,21 @@
         <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>-269204.0089692291</v>
+        <v>4.517500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1955,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-269214.0089692291</v>
+        <v>4.528</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1964,17 +2002,12 @@
         <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>1.045574712643679</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1996,13 +2029,13 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-269224.0089692291</v>
+        <v>4.536500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2010,6 +2043,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2031,13 +2065,13 @@
         <v>16344.5498</v>
       </c>
       <c r="G41" t="n">
-        <v>-252879.4591692291</v>
+        <v>4.543000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2045,6 +2079,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2066,7 +2101,7 @@
         <v>83899.8912</v>
       </c>
       <c r="G42" t="n">
-        <v>-252879.4591692291</v>
+        <v>4.548500000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2080,6 +2115,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2101,13 +2137,13 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>-252879.4591692291</v>
+        <v>4.553000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2115,6 +2151,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2136,13 +2173,13 @@
         <v>126818.4458</v>
       </c>
       <c r="G44" t="n">
-        <v>-252879.4591692291</v>
+        <v>4.5585</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2150,6 +2187,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2171,13 +2209,13 @@
         <v>154393.7994</v>
       </c>
       <c r="G45" t="n">
-        <v>-407273.258569229</v>
+        <v>4.5635</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2185,6 +2223,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2206,7 +2245,7 @@
         <v>19543.2097</v>
       </c>
       <c r="G46" t="n">
-        <v>-426816.4682692291</v>
+        <v>4.562500000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2220,6 +2259,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2241,7 +2281,7 @@
         <v>21387.5213</v>
       </c>
       <c r="G47" t="n">
-        <v>-448203.9895692291</v>
+        <v>4.557</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2255,6 +2295,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2276,7 +2317,7 @@
         <v>181426.0164</v>
       </c>
       <c r="G48" t="n">
-        <v>-266777.9731692291</v>
+        <v>4.559500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2290,6 +2331,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2311,13 +2353,13 @@
         <v>400</v>
       </c>
       <c r="G49" t="n">
-        <v>-266377.9731692291</v>
+        <v>4.567000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2325,6 +2367,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2346,13 +2389,13 @@
         <v>35393.6021</v>
       </c>
       <c r="G50" t="n">
-        <v>-230984.3710692291</v>
+        <v>4.576500000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2360,6 +2403,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2381,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-230994.3710692291</v>
+        <v>4.584000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2395,6 +2439,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,13 +2461,13 @@
         <v>18.1818</v>
       </c>
       <c r="G52" t="n">
-        <v>-230976.1892692291</v>
+        <v>4.591500000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2430,6 +2475,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2451,13 +2497,13 @@
         <v>767.2198</v>
       </c>
       <c r="G53" t="n">
-        <v>-231743.4090692291</v>
+        <v>4.596000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2465,6 +2511,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,13 +2533,13 @@
         <v>190</v>
       </c>
       <c r="G54" t="n">
-        <v>-231933.4090692291</v>
+        <v>4.599500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2500,6 +2547,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2521,13 +2569,13 @@
         <v>26966.6125</v>
       </c>
       <c r="G55" t="n">
-        <v>-258900.0215692291</v>
+        <v>4.607000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2535,6 +2583,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2556,13 +2605,13 @@
         <v>670000.2463999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-928900.267969229</v>
+        <v>4.605</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2570,6 +2619,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2591,13 +2641,13 @@
         <v>211.5468</v>
       </c>
       <c r="G57" t="n">
-        <v>-928688.721169229</v>
+        <v>4.603000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2605,6 +2655,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2626,7 +2677,7 @@
         <v>40197.9257</v>
       </c>
       <c r="G58" t="n">
-        <v>-968886.646869229</v>
+        <v>4.596000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2640,6 +2691,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2661,13 +2713,13 @@
         <v>1936.4628</v>
       </c>
       <c r="G59" t="n">
-        <v>-968886.646869229</v>
+        <v>4.596500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2675,6 +2727,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2696,7 +2749,7 @@
         <v>18.1818</v>
       </c>
       <c r="G60" t="n">
-        <v>-968886.646869229</v>
+        <v>4.5975</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2710,6 +2763,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2731,7 +2785,7 @@
         <v>4848</v>
       </c>
       <c r="G61" t="n">
-        <v>-964038.646869229</v>
+        <v>4.5975</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2745,6 +2799,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2766,7 +2821,7 @@
         <v>69730.9368</v>
       </c>
       <c r="G62" t="n">
-        <v>-964038.646869229</v>
+        <v>4.598000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2780,6 +2835,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2801,7 +2857,7 @@
         <v>47723.4267</v>
       </c>
       <c r="G63" t="n">
-        <v>-916315.2201692291</v>
+        <v>4.5985</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2815,6 +2871,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2836,7 +2893,7 @@
         <v>4610.1818</v>
       </c>
       <c r="G64" t="n">
-        <v>-916315.2201692291</v>
+        <v>4.5985</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2850,6 +2907,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2871,7 +2929,7 @@
         <v>19963.6364</v>
       </c>
       <c r="G65" t="n">
-        <v>-916315.2201692291</v>
+        <v>4.599500000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2885,6 +2943,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2906,7 +2965,7 @@
         <v>5004.013</v>
       </c>
       <c r="G66" t="n">
-        <v>-911311.207169229</v>
+        <v>4.605</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2920,6 +2979,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2941,7 +3001,7 @@
         <v>168839.8183</v>
       </c>
       <c r="G67" t="n">
-        <v>-742471.388869229</v>
+        <v>4.611000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2955,6 +3015,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2976,13 +3037,13 @@
         <v>86186.75199999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-828658.140869229</v>
+        <v>4.609000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2990,6 +3051,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3011,13 +3073,13 @@
         <v>199733.4772</v>
       </c>
       <c r="G69" t="n">
-        <v>-628924.663669229</v>
+        <v>4.608000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3025,6 +3087,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3046,13 +3109,13 @@
         <v>21977.5772</v>
       </c>
       <c r="G70" t="n">
-        <v>-628924.663669229</v>
+        <v>4.6075</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3060,6 +3123,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3081,7 +3145,7 @@
         <v>82101.2316</v>
       </c>
       <c r="G71" t="n">
-        <v>-628924.663669229</v>
+        <v>4.608000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3095,6 +3159,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3116,13 +3181,13 @@
         <v>159216.8858</v>
       </c>
       <c r="G72" t="n">
-        <v>-628924.663669229</v>
+        <v>4.6075</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3130,6 +3195,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3151,13 +3217,13 @@
         <v>14.9784</v>
       </c>
       <c r="G73" t="n">
-        <v>-628909.685269229</v>
+        <v>4.6075</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3165,6 +3231,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3186,13 +3253,13 @@
         <v>264</v>
       </c>
       <c r="G74" t="n">
-        <v>-628909.685269229</v>
+        <v>4.608000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3200,6 +3267,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3221,13 +3289,13 @@
         <v>3572.418</v>
       </c>
       <c r="G75" t="n">
-        <v>-628909.685269229</v>
+        <v>4.609</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3235,6 +3303,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3256,13 +3325,13 @@
         <v>297</v>
       </c>
       <c r="G76" t="n">
-        <v>-628909.685269229</v>
+        <v>4.611000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3270,6 +3339,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3291,13 +3361,13 @@
         <v>165</v>
       </c>
       <c r="G77" t="n">
-        <v>-628909.685269229</v>
+        <v>4.6135</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3305,6 +3375,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3326,13 +3397,13 @@
         <v>18.1818</v>
       </c>
       <c r="G78" t="n">
-        <v>-628909.685269229</v>
+        <v>4.6165</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3340,6 +3411,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3361,13 +3433,13 @@
         <v>14.8491</v>
       </c>
       <c r="G79" t="n">
-        <v>-628909.685269229</v>
+        <v>4.6195</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3375,6 +3447,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3396,13 +3469,13 @@
         <v>1864.3857</v>
       </c>
       <c r="G80" t="n">
-        <v>-628909.685269229</v>
+        <v>4.6225</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3410,6 +3483,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3431,13 +3505,13 @@
         <v>3232.7586</v>
       </c>
       <c r="G81" t="n">
-        <v>-628909.685269229</v>
+        <v>4.625500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3445,6 +3519,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3466,13 +3541,13 @@
         <v>1745.4302</v>
       </c>
       <c r="G82" t="n">
-        <v>-630655.1154692289</v>
+        <v>4.6275</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3480,6 +3555,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3501,13 +3577,13 @@
         <v>10775.862</v>
       </c>
       <c r="G83" t="n">
-        <v>-619879.253469229</v>
+        <v>4.630000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3515,6 +3591,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,13 +3613,13 @@
         <v>50000</v>
       </c>
       <c r="G84" t="n">
-        <v>-669879.253469229</v>
+        <v>4.632</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3550,6 +3627,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3571,13 +3649,13 @@
         <v>50799.136</v>
       </c>
       <c r="G85" t="n">
-        <v>-619080.117469229</v>
+        <v>4.631500000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3585,6 +3663,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3606,13 +3685,13 @@
         <v>1522.0909</v>
       </c>
       <c r="G86" t="n">
-        <v>-620602.208369229</v>
+        <v>4.630500000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3620,6 +3699,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3641,7 +3721,7 @@
         <v>189704.2334</v>
       </c>
       <c r="G87" t="n">
-        <v>-430897.974969229</v>
+        <v>4.631500000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3655,6 +3735,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3676,13 +3757,13 @@
         <v>18.1818</v>
       </c>
       <c r="G88" t="n">
-        <v>-430879.7931692289</v>
+        <v>4.633000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3690,6 +3771,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3711,13 +3793,13 @@
         <v>60018.1818</v>
       </c>
       <c r="G89" t="n">
-        <v>-430879.7931692289</v>
+        <v>4.633500000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3725,6 +3807,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3746,13 +3829,13 @@
         <v>3058.2666</v>
       </c>
       <c r="G90" t="n">
-        <v>-433938.0597692289</v>
+        <v>4.634000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3760,6 +3843,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3781,13 +3865,13 @@
         <v>70.1713</v>
       </c>
       <c r="G91" t="n">
-        <v>-434008.2310692289</v>
+        <v>4.633000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3795,6 +3879,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3816,13 +3901,13 @@
         <v>77.9091</v>
       </c>
       <c r="G92" t="n">
-        <v>-434086.1401692289</v>
+        <v>4.631000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3830,6 +3915,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3851,7 +3937,7 @@
         <v>18.1818</v>
       </c>
       <c r="G93" t="n">
-        <v>-434067.9583692289</v>
+        <v>4.631000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3865,6 +3951,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3886,13 +3973,13 @@
         <v>1727.1794</v>
       </c>
       <c r="G94" t="n">
-        <v>-435795.1377692289</v>
+        <v>4.630500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3900,6 +3987,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3921,7 +4009,7 @@
         <v>152236.2576</v>
       </c>
       <c r="G95" t="n">
-        <v>-588031.3953692289</v>
+        <v>4.6275</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3935,6 +4023,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3956,7 +4045,7 @@
         <v>24580.0726</v>
       </c>
       <c r="G96" t="n">
-        <v>-612611.4679692289</v>
+        <v>4.623</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3970,6 +4059,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3991,7 +4081,7 @@
         <v>39846</v>
       </c>
       <c r="G97" t="n">
-        <v>-652457.4679692289</v>
+        <v>4.617</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4005,6 +4095,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4026,7 +4117,7 @@
         <v>11930</v>
       </c>
       <c r="G98" t="n">
-        <v>-664387.4679692289</v>
+        <v>4.6105</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4040,6 +4131,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4061,7 +4153,7 @@
         <v>257207.9297</v>
       </c>
       <c r="G99" t="n">
-        <v>-921595.3976692288</v>
+        <v>4.6035</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4075,6 +4167,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4096,7 +4189,7 @@
         <v>42162.6961</v>
       </c>
       <c r="G100" t="n">
-        <v>-963758.0937692288</v>
+        <v>4.592000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4114,6 +4207,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4135,7 +4229,7 @@
         <v>84892.78126148797</v>
       </c>
       <c r="G101" t="n">
-        <v>-878865.3125077408</v>
+        <v>4.58</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -4157,6 +4251,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4178,7 +4273,7 @@
         <v>112333.1447</v>
       </c>
       <c r="G102" t="n">
-        <v>-991198.4572077408</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4200,6 +4295,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4221,7 +4317,7 @@
         <v>85028.0056</v>
       </c>
       <c r="G103" t="n">
-        <v>-991198.4572077408</v>
+        <v>4.562</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4243,6 +4339,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4264,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-991188.4572077408</v>
+        <v>4.5555</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4286,6 +4383,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4307,7 +4405,7 @@
         <v>85028.0056</v>
       </c>
       <c r="G105" t="n">
-        <v>-1076216.462807741</v>
+        <v>4.546000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4329,6 +4427,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4350,7 +4449,7 @@
         <v>18.1818</v>
       </c>
       <c r="G106" t="n">
-        <v>-1076198.281007741</v>
+        <v>4.5425</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4372,6 +4471,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4393,7 +4493,7 @@
         <v>21.9725</v>
       </c>
       <c r="G107" t="n">
-        <v>-1076220.253507741</v>
+        <v>4.537000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4413,6 +4513,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4434,7 +4535,7 @@
         <v>5840.8182</v>
       </c>
       <c r="G108" t="n">
-        <v>-1070379.435307741</v>
+        <v>4.5305</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4454,6 +4555,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4475,7 +4577,7 @@
         <v>409279.3034</v>
       </c>
       <c r="G109" t="n">
-        <v>-1070379.435307741</v>
+        <v>4.525</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4495,6 +4597,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4516,7 +4619,7 @@
         <v>67583.61410000001</v>
       </c>
       <c r="G110" t="n">
-        <v>-1137963.049407741</v>
+        <v>4.518</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4538,6 +4641,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4559,7 +4663,7 @@
         <v>35658.5472</v>
       </c>
       <c r="G111" t="n">
-        <v>-1102304.502207741</v>
+        <v>4.513</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4581,6 +4685,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4602,7 +4707,7 @@
         <v>2597.4722</v>
       </c>
       <c r="G112" t="n">
-        <v>-1104901.974407741</v>
+        <v>4.508999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4624,6 +4729,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4645,7 +4751,7 @@
         <v>2421</v>
       </c>
       <c r="G113" t="n">
-        <v>-1102480.974407741</v>
+        <v>4.5025</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4667,6 +4773,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4688,7 +4795,7 @@
         <v>22400.6747</v>
       </c>
       <c r="G114" t="n">
-        <v>-1102480.974407741</v>
+        <v>4.497</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4710,6 +4817,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4731,7 +4839,7 @@
         <v>34643.0025</v>
       </c>
       <c r="G115" t="n">
-        <v>-1067837.971907741</v>
+        <v>4.494</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4753,6 +4861,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4774,7 +4883,7 @@
         <v>1650125.5268</v>
       </c>
       <c r="G116" t="n">
-        <v>-2717963.498707741</v>
+        <v>4.493</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4796,6 +4905,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4817,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-2717953.498707741</v>
+        <v>4.495500000000001</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4839,6 +4949,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4860,7 +4971,7 @@
         <v>2151</v>
       </c>
       <c r="G118" t="n">
-        <v>-2715802.498707741</v>
+        <v>4.498500000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4880,6 +4991,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4901,7 +5013,7 @@
         <v>43.945</v>
       </c>
       <c r="G119" t="n">
-        <v>-2715846.44370774</v>
+        <v>4.503500000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4921,6 +5033,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4942,7 +5055,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>-2715836.44370774</v>
+        <v>4.513</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4962,6 +5075,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C2" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E2" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F2" t="n">
-        <v>31741.3211</v>
+        <v>133494.0347</v>
       </c>
       <c r="G2" t="n">
-        <v>4.331500000000001</v>
+        <v>868970.9875907241</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C3" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D3" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E3" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F3" t="n">
-        <v>10203.6828</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>4.329000000000001</v>
+        <v>868980.9875907241</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,36 +514,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C4" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E4" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>47671.766</v>
       </c>
       <c r="G4" t="n">
-        <v>4.339</v>
+        <v>821309.2215907241</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,22 +556,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C5" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="D5" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E5" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="F5" t="n">
-        <v>17.2584</v>
+        <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>4.337</v>
+        <v>821509.2215907241</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -574,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -594,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E6" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="F6" t="n">
-        <v>5000</v>
+        <v>578447</v>
       </c>
       <c r="G6" t="n">
-        <v>4.339499999999999</v>
+        <v>243062.2215907241</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,14 +624,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,38 +636,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="C7" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="E7" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>113817.972</v>
       </c>
       <c r="G7" t="n">
-        <v>4.342499999999999</v>
+        <v>243062.2215907241</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="K7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -678,36 +676,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C8" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D8" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E8" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F8" t="n">
-        <v>7606.8321</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>4.345</v>
+        <v>243072.2215907241</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="K8" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -720,36 +720,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C9" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E9" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>2509.425</v>
       </c>
       <c r="G9" t="n">
-        <v>4.345499999999999</v>
+        <v>240562.7965907241</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K9" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -762,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="E10" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F10" t="n">
-        <v>86120</v>
+        <v>110000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.339999999999999</v>
+        <v>240562.7965907241</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -786,14 +788,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -804,36 +800,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="C11" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="D11" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="E11" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="F11" t="n">
-        <v>19186.3226</v>
+        <v>1490006.266</v>
       </c>
       <c r="G11" t="n">
-        <v>4.332999999999999</v>
+        <v>-1249443.469409276</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -846,35 +842,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C12" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="D12" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="E12" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F12" t="n">
-        <v>94657.1869</v>
+        <v>240</v>
       </c>
       <c r="G12" t="n">
-        <v>4.329499999999999</v>
+        <v>-1249203.469409276</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -890,22 +882,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="C13" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="D13" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="E13" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="F13" t="n">
-        <v>32777</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>4.329499999999999</v>
+        <v>-1249213.469409276</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -914,9 +906,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -932,22 +922,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="C14" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="D14" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="E14" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3285</v>
+        <v>-1249195.469409276</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -956,9 +946,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -974,22 +962,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C15" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="D15" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="E15" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3255</v>
+        <v>-1249213.469409276</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -998,9 +986,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1016,22 +1002,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C16" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="E16" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="F16" t="n">
-        <v>5237</v>
+        <v>81830.27959999999</v>
       </c>
       <c r="G16" t="n">
-        <v>4.323</v>
+        <v>-1249213.469409276</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1040,9 +1026,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1058,33 +1042,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="C17" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="D17" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="E17" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1046450.599</v>
+        <v>28200</v>
       </c>
       <c r="G17" t="n">
-        <v>4.322</v>
+        <v>-1221013.469409276</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1100,33 +1084,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="C18" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="D18" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="E18" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="F18" t="n">
-        <v>7000</v>
+        <v>122805.864</v>
       </c>
       <c r="G18" t="n">
-        <v>4.3235</v>
+        <v>-1343819.333409276</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J18" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1142,33 +1126,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="C19" t="n">
-        <v>4.39</v>
+        <v>4.34</v>
       </c>
       <c r="D19" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="E19" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="F19" t="n">
-        <v>231122.8106</v>
+        <v>17516.0308</v>
       </c>
       <c r="G19" t="n">
-        <v>4.326</v>
+        <v>-1343819.333409276</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J19" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1184,22 +1168,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="C20" t="n">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="D20" t="n">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="E20" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="F20" t="n">
-        <v>359460.7954</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3275</v>
+        <v>-1343809.333409276</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1208,9 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1226,33 +1208,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="C21" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="E21" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="F21" t="n">
-        <v>60000</v>
+        <v>101344.186</v>
       </c>
       <c r="G21" t="n">
-        <v>4.3325</v>
+        <v>-1445153.519409276</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J21" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1268,33 +1250,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="C22" t="n">
-        <v>4.49</v>
+        <v>4.3</v>
       </c>
       <c r="D22" t="n">
-        <v>4.49</v>
+        <v>4.3</v>
       </c>
       <c r="E22" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="F22" t="n">
-        <v>109829.6164</v>
+        <v>48655.814</v>
       </c>
       <c r="G22" t="n">
-        <v>4.338500000000001</v>
+        <v>-1445153.519409276</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1310,33 +1292,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="C23" t="n">
-        <v>4.48</v>
+        <v>4.36</v>
       </c>
       <c r="D23" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="E23" t="n">
-        <v>4.47</v>
+        <v>4.36</v>
       </c>
       <c r="F23" t="n">
-        <v>37293.021</v>
+        <v>18.1818</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3455</v>
+        <v>-1445135.337609276</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1352,33 +1334,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="C24" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="D24" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="E24" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="F24" t="n">
-        <v>2033.3502</v>
+        <v>18.1818</v>
       </c>
       <c r="G24" t="n">
-        <v>4.352000000000001</v>
+        <v>-1445117.155809276</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J24" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1394,33 +1376,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.48</v>
+        <v>4.36</v>
       </c>
       <c r="C25" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D25" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="E25" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="F25" t="n">
-        <v>735310.9674</v>
+        <v>115027.1597</v>
       </c>
       <c r="G25" t="n">
-        <v>4.358000000000001</v>
+        <v>-1560144.315509276</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="J25" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1436,22 +1418,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="C26" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="D26" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="E26" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="F26" t="n">
-        <v>103444.7236</v>
+        <v>115424.4438</v>
       </c>
       <c r="G26" t="n">
-        <v>4.366500000000001</v>
+        <v>-1675568.759309276</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1460,9 +1442,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1478,22 +1458,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="C27" t="n">
-        <v>4.54</v>
+        <v>4.32</v>
       </c>
       <c r="D27" t="n">
-        <v>4.61</v>
+        <v>4.32</v>
       </c>
       <c r="E27" t="n">
-        <v>4.51</v>
+        <v>4.32</v>
       </c>
       <c r="F27" t="n">
-        <v>147240.3646</v>
+        <v>703.0198</v>
       </c>
       <c r="G27" t="n">
-        <v>4.378500000000001</v>
+        <v>-1675568.759309276</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1502,9 +1482,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1520,22 +1498,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.61</v>
+        <v>4.31</v>
       </c>
       <c r="C28" t="n">
-        <v>4.61</v>
+        <v>4.3</v>
       </c>
       <c r="D28" t="n">
-        <v>4.61</v>
+        <v>4.31</v>
       </c>
       <c r="E28" t="n">
-        <v>4.52</v>
+        <v>4.3</v>
       </c>
       <c r="F28" t="n">
-        <v>416949.5081</v>
+        <v>2314.6924</v>
       </c>
       <c r="G28" t="n">
-        <v>4.391500000000002</v>
+        <v>-1677883.451709276</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1544,9 +1522,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,22 +1538,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="C29" t="n">
-        <v>4.59</v>
+        <v>4.36</v>
       </c>
       <c r="D29" t="n">
-        <v>4.59</v>
+        <v>4.36</v>
       </c>
       <c r="E29" t="n">
-        <v>4.47</v>
+        <v>4.36</v>
       </c>
       <c r="F29" t="n">
-        <v>960478.1181</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>4.399000000000002</v>
+        <v>-1677873.451709276</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1586,9 +1562,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,22 +1578,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="C30" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="D30" t="n">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="E30" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>186767.793</v>
       </c>
       <c r="G30" t="n">
-        <v>4.410000000000002</v>
+        <v>-1864641.244709276</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1628,9 +1602,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1646,22 +1618,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="C31" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="D31" t="n">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="E31" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="F31" t="n">
-        <v>22344.4285</v>
+        <v>31741.3211</v>
       </c>
       <c r="G31" t="n">
-        <v>4.422500000000001</v>
+        <v>-1864641.244709276</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1670,9 +1642,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1688,22 +1658,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="C32" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D32" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E32" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="F32" t="n">
-        <v>77576.94160000001</v>
+        <v>10203.6828</v>
       </c>
       <c r="G32" t="n">
-        <v>4.436000000000002</v>
+        <v>-1864641.244709276</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1712,9 +1682,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1730,22 +1698,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="C33" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="D33" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="E33" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="F33" t="n">
-        <v>14947.0225</v>
+        <v>12000</v>
       </c>
       <c r="G33" t="n">
-        <v>4.448500000000001</v>
+        <v>-1864641.244709276</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1754,9 +1722,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,22 +1738,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.56</v>
+        <v>4.36</v>
       </c>
       <c r="C34" t="n">
-        <v>4.62</v>
+        <v>4.36</v>
       </c>
       <c r="D34" t="n">
-        <v>4.62</v>
+        <v>4.36</v>
       </c>
       <c r="E34" t="n">
-        <v>4.56</v>
+        <v>4.36</v>
       </c>
       <c r="F34" t="n">
-        <v>167288.4828</v>
+        <v>17.2584</v>
       </c>
       <c r="G34" t="n">
-        <v>4.459500000000001</v>
+        <v>-1864623.986309276</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1796,9 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1814,22 +1778,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="C35" t="n">
-        <v>4.64</v>
+        <v>4.22</v>
       </c>
       <c r="D35" t="n">
-        <v>4.64</v>
+        <v>4.35</v>
       </c>
       <c r="E35" t="n">
-        <v>4.47</v>
+        <v>4.22</v>
       </c>
       <c r="F35" t="n">
-        <v>215578.5800678959</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="n">
-        <v>4.467500000000001</v>
+        <v>-1869623.986309276</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1838,9 +1802,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,22 +1818,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="C36" t="n">
-        <v>4.63</v>
+        <v>4.36</v>
       </c>
       <c r="D36" t="n">
-        <v>4.7</v>
+        <v>4.36</v>
       </c>
       <c r="E36" t="n">
-        <v>4.63</v>
+        <v>4.36</v>
       </c>
       <c r="F36" t="n">
-        <v>538557.9690957447</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>4.484000000000001</v>
+        <v>-1869613.986309276</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1880,9 +1842,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,76 +1858,76 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="C37" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="D37" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="E37" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="F37" t="n">
-        <v>234350.9521321041</v>
+        <v>7606.8321</v>
       </c>
       <c r="G37" t="n">
-        <v>4.499000000000001</v>
+        <v>-1877220.818409276</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1.043275862068966</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.002298850574713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="C38" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="D38" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="E38" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="F38" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="G38" t="n">
-        <v>4.517500000000001</v>
+        <v>-1877220.818409276</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1978,32 +1938,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="C39" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="D39" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="E39" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>86120</v>
       </c>
       <c r="G39" t="n">
-        <v>4.528</v>
+        <v>-1963340.818409276</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2014,32 +1978,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="C40" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="D40" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="E40" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>19186.3226</v>
       </c>
       <c r="G40" t="n">
-        <v>4.536500000000001</v>
+        <v>-1963340.818409276</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,32 +2018,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="C41" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="D41" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="E41" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="F41" t="n">
-        <v>16344.5498</v>
+        <v>94657.1869</v>
       </c>
       <c r="G41" t="n">
-        <v>4.543000000000001</v>
+        <v>-1868683.631509276</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2086,22 +2058,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.58</v>
+        <v>4.3</v>
       </c>
       <c r="C42" t="n">
-        <v>4.58</v>
+        <v>4.25</v>
       </c>
       <c r="D42" t="n">
-        <v>4.58</v>
+        <v>4.3</v>
       </c>
       <c r="E42" t="n">
-        <v>4.57</v>
+        <v>4.25</v>
       </c>
       <c r="F42" t="n">
-        <v>83899.8912</v>
+        <v>32777</v>
       </c>
       <c r="G42" t="n">
-        <v>4.548500000000001</v>
+        <v>-1901460.631509276</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2111,7 +2083,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2122,32 +2098,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="C43" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="D43" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="E43" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>4.553000000000001</v>
+        <v>-1901360.631509276</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2158,32 +2138,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.59</v>
+        <v>4.31</v>
       </c>
       <c r="C44" t="n">
-        <v>4.58</v>
+        <v>4.31</v>
       </c>
       <c r="D44" t="n">
-        <v>4.59</v>
+        <v>4.31</v>
       </c>
       <c r="E44" t="n">
-        <v>4.58</v>
+        <v>4.31</v>
       </c>
       <c r="F44" t="n">
-        <v>126818.4458</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>4.5585</v>
+        <v>-1901460.631509276</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2194,32 +2178,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.58</v>
+        <v>4.31</v>
       </c>
       <c r="C45" t="n">
-        <v>4.51</v>
+        <v>4.34</v>
       </c>
       <c r="D45" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="E45" t="n">
-        <v>4.51</v>
+        <v>4.31</v>
       </c>
       <c r="F45" t="n">
-        <v>154393.7994</v>
+        <v>5237</v>
       </c>
       <c r="G45" t="n">
-        <v>4.5635</v>
+        <v>-1896223.631509276</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2230,22 +2218,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="C46" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D46" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="F46" t="n">
-        <v>19543.2097</v>
+        <v>1046450.599</v>
       </c>
       <c r="G46" t="n">
-        <v>4.562500000000001</v>
+        <v>-849773.0325092763</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2255,7 +2243,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2266,22 +2258,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="C47" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="D47" t="n">
-        <v>4.68</v>
+        <v>4.36</v>
       </c>
       <c r="E47" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="F47" t="n">
-        <v>21387.5213</v>
+        <v>7000</v>
       </c>
       <c r="G47" t="n">
-        <v>4.557</v>
+        <v>-842773.0325092763</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2291,7 +2283,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2302,22 +2298,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.66</v>
+        <v>4.36</v>
       </c>
       <c r="C48" t="n">
-        <v>4.54</v>
+        <v>4.39</v>
       </c>
       <c r="D48" t="n">
-        <v>4.66</v>
+        <v>4.4</v>
       </c>
       <c r="E48" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="F48" t="n">
-        <v>181426.0164</v>
+        <v>231122.8106</v>
       </c>
       <c r="G48" t="n">
-        <v>4.559500000000001</v>
+        <v>-611650.2219092763</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2327,7 +2323,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2338,32 +2338,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.65</v>
+        <v>4.39</v>
       </c>
       <c r="C49" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="D49" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="E49" t="n">
-        <v>4.64</v>
+        <v>4.39</v>
       </c>
       <c r="F49" t="n">
-        <v>400</v>
+        <v>359460.7954</v>
       </c>
       <c r="G49" t="n">
-        <v>4.567000000000001</v>
+        <v>-252189.4265092763</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2374,32 +2378,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="C50" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="D50" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="E50" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="F50" t="n">
-        <v>35393.6021</v>
+        <v>60000</v>
       </c>
       <c r="G50" t="n">
-        <v>4.576500000000001</v>
+        <v>-192189.4265092763</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2410,32 +2418,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C51" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="D51" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="E51" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>109829.6164</v>
       </c>
       <c r="G51" t="n">
-        <v>4.584000000000001</v>
+        <v>-82359.81010927632</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2446,32 +2458,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="C52" t="n">
-        <v>4.65</v>
+        <v>4.48</v>
       </c>
       <c r="D52" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="E52" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="F52" t="n">
-        <v>18.1818</v>
+        <v>37293.021</v>
       </c>
       <c r="G52" t="n">
-        <v>4.591500000000001</v>
+        <v>-119652.8311092763</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2482,32 +2498,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="C53" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="D53" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="E53" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="F53" t="n">
-        <v>767.2198</v>
+        <v>2033.3502</v>
       </c>
       <c r="G53" t="n">
-        <v>4.596000000000001</v>
+        <v>-119652.8311092763</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2518,32 +2538,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.63</v>
+        <v>4.48</v>
       </c>
       <c r="C54" t="n">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="D54" t="n">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="E54" t="n">
-        <v>4.63</v>
+        <v>4.48</v>
       </c>
       <c r="F54" t="n">
-        <v>190</v>
+        <v>735310.9674</v>
       </c>
       <c r="G54" t="n">
-        <v>4.599500000000001</v>
+        <v>615658.1362907237</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2554,32 +2578,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="C55" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="D55" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E55" t="n">
-        <v>4.61</v>
+        <v>4.5</v>
       </c>
       <c r="F55" t="n">
-        <v>26966.6125</v>
+        <v>103444.7236</v>
       </c>
       <c r="G55" t="n">
-        <v>4.607000000000001</v>
+        <v>719102.8598907237</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2593,29 +2621,33 @@
         <v>4.6</v>
       </c>
       <c r="C56" t="n">
-        <v>4.4</v>
+        <v>4.54</v>
       </c>
       <c r="D56" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="E56" t="n">
-        <v>4.4</v>
+        <v>4.51</v>
       </c>
       <c r="F56" t="n">
-        <v>670000.2463999999</v>
+        <v>147240.3646</v>
       </c>
       <c r="G56" t="n">
-        <v>4.605</v>
+        <v>571862.4952907237</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2626,32 +2658,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C57" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="D57" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="E57" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="F57" t="n">
-        <v>211.5468</v>
+        <v>416949.5081</v>
       </c>
       <c r="G57" t="n">
-        <v>4.603000000000001</v>
+        <v>988812.0033907237</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2662,22 +2698,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C58" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D58" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E58" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="F58" t="n">
-        <v>40197.9257</v>
+        <v>960478.1181</v>
       </c>
       <c r="G58" t="n">
-        <v>4.596000000000001</v>
+        <v>28333.88529072376</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2687,7 +2723,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2698,32 +2738,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.58</v>
+        <v>4.45</v>
       </c>
       <c r="C59" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="D59" t="n">
         <v>4.58</v>
       </c>
       <c r="E59" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="F59" t="n">
-        <v>1936.4628</v>
+        <v>35</v>
       </c>
       <c r="G59" t="n">
-        <v>4.596500000000001</v>
+        <v>28298.88529072376</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2734,22 +2778,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="C60" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="D60" t="n">
         <v>4.58</v>
       </c>
       <c r="E60" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="F60" t="n">
-        <v>18.1818</v>
+        <v>22344.4285</v>
       </c>
       <c r="G60" t="n">
-        <v>4.5975</v>
+        <v>28298.88529072376</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2759,7 +2803,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2818,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C61" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="D61" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="E61" t="n">
-        <v>4.58</v>
+        <v>4.45</v>
       </c>
       <c r="F61" t="n">
-        <v>4848</v>
+        <v>77576.94160000001</v>
       </c>
       <c r="G61" t="n">
-        <v>4.5975</v>
+        <v>105875.8268907238</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2795,7 +2843,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +2858,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="C62" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D62" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E62" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F62" t="n">
-        <v>69730.9368</v>
+        <v>14947.0225</v>
       </c>
       <c r="G62" t="n">
-        <v>4.598000000000001</v>
+        <v>120822.8493907238</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2831,7 +2883,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2842,22 +2898,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="C63" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D63" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E63" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F63" t="n">
-        <v>47723.4267</v>
+        <v>167288.4828</v>
       </c>
       <c r="G63" t="n">
-        <v>4.5985</v>
+        <v>288111.3321907237</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2867,7 +2923,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2878,22 +2938,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="C64" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D64" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E64" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="F64" t="n">
-        <v>4610.1818</v>
+        <v>215578.5800678959</v>
       </c>
       <c r="G64" t="n">
-        <v>4.5985</v>
+        <v>503689.9122586197</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2903,7 +2963,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2914,22 +2978,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C65" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="D65" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E65" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="F65" t="n">
-        <v>19963.6364</v>
+        <v>538557.9690957447</v>
       </c>
       <c r="G65" t="n">
-        <v>4.599500000000001</v>
+        <v>-34868.05683712498</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2939,7 +3003,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +3018,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="C66" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="D66" t="n">
-        <v>4.61</v>
+        <v>4.72</v>
       </c>
       <c r="E66" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="F66" t="n">
-        <v>5004.013</v>
+        <v>234350.9521321041</v>
       </c>
       <c r="G66" t="n">
-        <v>4.605</v>
+        <v>-269219.0089692291</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2975,7 +3043,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2986,22 +3058,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.61</v>
+        <v>4.72</v>
       </c>
       <c r="C67" t="n">
-        <v>4.63</v>
+        <v>4.72</v>
       </c>
       <c r="D67" t="n">
-        <v>4.63</v>
+        <v>4.72</v>
       </c>
       <c r="E67" t="n">
-        <v>4.61</v>
+        <v>4.72</v>
       </c>
       <c r="F67" t="n">
-        <v>168839.8183</v>
+        <v>15</v>
       </c>
       <c r="G67" t="n">
-        <v>4.611000000000001</v>
+        <v>-269204.0089692291</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3011,7 +3083,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +3098,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="C68" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="D68" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="E68" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="F68" t="n">
-        <v>86186.75199999999</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>4.609000000000001</v>
+        <v>-269214.0089692291</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3047,10 +3123,12 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -3058,28 +3136,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="C69" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="D69" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="E69" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="F69" t="n">
-        <v>199733.4772</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>4.608000000000001</v>
+        <v>-269224.0089692291</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3094,28 +3172,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="C70" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D70" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="E70" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F70" t="n">
-        <v>21977.5772</v>
+        <v>16344.5498</v>
       </c>
       <c r="G70" t="n">
-        <v>4.6075</v>
+        <v>-252879.4591692291</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3130,28 +3208,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D71" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E71" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="F71" t="n">
-        <v>82101.2316</v>
+        <v>83899.8912</v>
       </c>
       <c r="G71" t="n">
-        <v>4.608000000000001</v>
+        <v>-252879.4591692291</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3166,28 +3244,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C72" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E72" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F72" t="n">
-        <v>159216.8858</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>4.6075</v>
+        <v>-252879.4591692291</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3202,28 +3280,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C73" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D73" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E73" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F73" t="n">
-        <v>14.9784</v>
+        <v>126818.4458</v>
       </c>
       <c r="G73" t="n">
-        <v>4.6075</v>
+        <v>-252879.4591692291</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3238,22 +3316,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C74" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="D74" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E74" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="F74" t="n">
-        <v>264</v>
+        <v>154393.7994</v>
       </c>
       <c r="G74" t="n">
-        <v>4.608000000000001</v>
+        <v>-407273.258569229</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3274,22 +3352,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="C75" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="D75" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="E75" t="n">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="F75" t="n">
-        <v>3572.418</v>
+        <v>19543.2097</v>
       </c>
       <c r="G75" t="n">
-        <v>4.609</v>
+        <v>-426816.4682692291</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3310,28 +3388,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C76" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="D76" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="E76" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="F76" t="n">
-        <v>297</v>
+        <v>21387.5213</v>
       </c>
       <c r="G76" t="n">
-        <v>4.611000000000001</v>
+        <v>-448203.9895692291</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3346,28 +3424,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="C77" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="D77" t="n">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="E77" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="F77" t="n">
-        <v>165</v>
+        <v>181426.0164</v>
       </c>
       <c r="G77" t="n">
-        <v>4.6135</v>
+        <v>-266777.9731692291</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3382,22 +3460,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C78" t="n">
         <v>4.64</v>
       </c>
       <c r="D78" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E78" t="n">
         <v>4.64</v>
       </c>
       <c r="F78" t="n">
-        <v>18.1818</v>
+        <v>400</v>
       </c>
       <c r="G78" t="n">
-        <v>4.6165</v>
+        <v>-266377.9731692291</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3421,19 +3499,19 @@
         <v>4.64</v>
       </c>
       <c r="C79" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D79" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E79" t="n">
         <v>4.64</v>
       </c>
       <c r="F79" t="n">
-        <v>14.8491</v>
+        <v>35393.6021</v>
       </c>
       <c r="G79" t="n">
-        <v>4.6195</v>
+        <v>-230984.3710692291</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3454,22 +3532,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C80" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="D80" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E80" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F80" t="n">
-        <v>1864.3857</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>4.6225</v>
+        <v>-230994.3710692291</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3490,22 +3568,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C81" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D81" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E81" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="F81" t="n">
-        <v>3232.7586</v>
+        <v>18.1818</v>
       </c>
       <c r="G81" t="n">
-        <v>4.625500000000001</v>
+        <v>-230976.1892692291</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3526,22 +3604,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C82" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="D82" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="E82" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="F82" t="n">
-        <v>1745.4302</v>
+        <v>767.2198</v>
       </c>
       <c r="G82" t="n">
-        <v>4.6275</v>
+        <v>-231743.4090692291</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3562,22 +3640,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C83" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="D83" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E83" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F83" t="n">
-        <v>10775.862</v>
+        <v>190</v>
       </c>
       <c r="G83" t="n">
-        <v>4.630000000000001</v>
+        <v>-231933.4090692291</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3598,22 +3676,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C84" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="D84" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="E84" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="F84" t="n">
-        <v>50000</v>
+        <v>26966.6125</v>
       </c>
       <c r="G84" t="n">
-        <v>4.632</v>
+        <v>-258900.0215692291</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3634,22 +3712,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C85" t="n">
-        <v>4.63</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="E85" t="n">
-        <v>4.59</v>
+        <v>4.4</v>
       </c>
       <c r="F85" t="n">
-        <v>50799.136</v>
+        <v>670000.2463999999</v>
       </c>
       <c r="G85" t="n">
-        <v>4.631500000000001</v>
+        <v>-928900.267969229</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3673,19 +3751,19 @@
         <v>4.59</v>
       </c>
       <c r="C86" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D86" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E86" t="n">
         <v>4.59</v>
       </c>
       <c r="F86" t="n">
-        <v>1522.0909</v>
+        <v>211.5468</v>
       </c>
       <c r="G86" t="n">
-        <v>4.630500000000001</v>
+        <v>-928688.721169229</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3706,28 +3784,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="C87" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D87" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E87" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F87" t="n">
-        <v>189704.2334</v>
+        <v>40197.9257</v>
       </c>
       <c r="G87" t="n">
-        <v>4.631500000000001</v>
+        <v>-968886.646869229</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3742,22 +3820,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="C88" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D88" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="E88" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="F88" t="n">
-        <v>18.1818</v>
+        <v>1936.4628</v>
       </c>
       <c r="G88" t="n">
-        <v>4.633000000000001</v>
+        <v>-968886.646869229</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3778,28 +3856,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C89" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D89" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="E89" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F89" t="n">
-        <v>60018.1818</v>
+        <v>18.1818</v>
       </c>
       <c r="G89" t="n">
-        <v>4.633500000000001</v>
+        <v>-968886.646869229</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3814,28 +3892,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C90" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="D90" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E90" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F90" t="n">
-        <v>3058.2666</v>
+        <v>4848</v>
       </c>
       <c r="G90" t="n">
-        <v>4.634000000000001</v>
+        <v>-964038.646869229</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3850,28 +3928,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C91" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="D91" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E91" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="F91" t="n">
-        <v>70.1713</v>
+        <v>69730.9368</v>
       </c>
       <c r="G91" t="n">
-        <v>4.633000000000001</v>
+        <v>-964038.646869229</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3886,7 +3964,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="C92" t="n">
         <v>4.6</v>
@@ -3895,19 +3973,19 @@
         <v>4.6</v>
       </c>
       <c r="E92" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F92" t="n">
-        <v>77.9091</v>
+        <v>47723.4267</v>
       </c>
       <c r="G92" t="n">
-        <v>4.631000000000001</v>
+        <v>-916315.2201692291</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3922,22 +4000,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C93" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D93" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E93" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="F93" t="n">
-        <v>18.1818</v>
+        <v>4610.1818</v>
       </c>
       <c r="G93" t="n">
-        <v>4.631000000000001</v>
+        <v>-916315.2201692291</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3958,28 +4036,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C94" t="n">
         <v>4.6</v>
       </c>
       <c r="D94" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E94" t="n">
         <v>4.6</v>
       </c>
       <c r="F94" t="n">
-        <v>1727.1794</v>
+        <v>19963.6364</v>
       </c>
       <c r="G94" t="n">
-        <v>4.630500000000001</v>
+        <v>-916315.2201692291</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3994,22 +4072,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="C95" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="D95" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="E95" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="F95" t="n">
-        <v>152236.2576</v>
+        <v>5004.013</v>
       </c>
       <c r="G95" t="n">
-        <v>4.6275</v>
+        <v>-911311.207169229</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4030,22 +4108,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="C96" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="D96" t="n">
-        <v>4.55</v>
+        <v>4.63</v>
       </c>
       <c r="E96" t="n">
-        <v>4.53</v>
+        <v>4.61</v>
       </c>
       <c r="F96" t="n">
-        <v>24580.0726</v>
+        <v>168839.8183</v>
       </c>
       <c r="G96" t="n">
-        <v>4.623</v>
+        <v>-742471.388869229</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4066,22 +4144,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="C97" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="D97" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="E97" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="F97" t="n">
-        <v>39846</v>
+        <v>86186.75199999999</v>
       </c>
       <c r="G97" t="n">
-        <v>4.617</v>
+        <v>-828658.140869229</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4102,22 +4180,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="C98" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="D98" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="E98" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="F98" t="n">
-        <v>11930</v>
+        <v>199733.4772</v>
       </c>
       <c r="G98" t="n">
-        <v>4.6105</v>
+        <v>-628924.663669229</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4138,22 +4216,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="C99" t="n">
-        <v>4.43</v>
+        <v>4.63</v>
       </c>
       <c r="D99" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="E99" t="n">
-        <v>4.43</v>
+        <v>4.63</v>
       </c>
       <c r="F99" t="n">
-        <v>257207.9297</v>
+        <v>21977.5772</v>
       </c>
       <c r="G99" t="n">
-        <v>4.6035</v>
+        <v>-628924.663669229</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4174,35 +4252,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.41</v>
+        <v>4.64</v>
       </c>
       <c r="C100" t="n">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="D100" t="n">
-        <v>4.41</v>
+        <v>4.64</v>
       </c>
       <c r="E100" t="n">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="F100" t="n">
-        <v>42162.6961</v>
+        <v>82101.2316</v>
       </c>
       <c r="G100" t="n">
-        <v>4.592000000000001</v>
+        <v>-628924.663669229</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K100" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
@@ -4214,40 +4288,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="C101" t="n">
-        <v>4.57</v>
+        <v>4.63</v>
       </c>
       <c r="D101" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="E101" t="n">
-        <v>4.4</v>
+        <v>4.63</v>
       </c>
       <c r="F101" t="n">
-        <v>84892.78126148797</v>
+        <v>159216.8858</v>
       </c>
       <c r="G101" t="n">
-        <v>4.58</v>
+        <v>-628924.663669229</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4258,40 +4324,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.55</v>
+        <v>4.64</v>
       </c>
       <c r="C102" t="n">
-        <v>4.36</v>
+        <v>4.64</v>
       </c>
       <c r="D102" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="E102" t="n">
-        <v>4.36</v>
+        <v>4.64</v>
       </c>
       <c r="F102" t="n">
-        <v>112333.1447</v>
+        <v>14.9784</v>
       </c>
       <c r="G102" t="n">
-        <v>4.576000000000001</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4302,40 +4360,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.36</v>
+        <v>4.64</v>
       </c>
       <c r="C103" t="n">
-        <v>4.36</v>
+        <v>4.64</v>
       </c>
       <c r="D103" t="n">
-        <v>4.36</v>
+        <v>4.64</v>
       </c>
       <c r="E103" t="n">
-        <v>4.36</v>
+        <v>4.64</v>
       </c>
       <c r="F103" t="n">
-        <v>85028.0056</v>
+        <v>264</v>
       </c>
       <c r="G103" t="n">
-        <v>4.562</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4346,40 +4396,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="C104" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="D104" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="E104" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>3572.418</v>
       </c>
       <c r="G104" t="n">
-        <v>4.5555</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4390,40 +4432,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="C105" t="n">
-        <v>4.38</v>
+        <v>4.64</v>
       </c>
       <c r="D105" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="E105" t="n">
-        <v>4.38</v>
+        <v>4.64</v>
       </c>
       <c r="F105" t="n">
-        <v>85028.0056</v>
+        <v>297</v>
       </c>
       <c r="G105" t="n">
-        <v>4.546000000000001</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4434,40 +4468,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="C106" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="D106" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="E106" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="F106" t="n">
-        <v>18.1818</v>
+        <v>165</v>
       </c>
       <c r="G106" t="n">
-        <v>4.5425</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K106" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4478,22 +4504,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="C107" t="n">
-        <v>4.42</v>
+        <v>4.64</v>
       </c>
       <c r="D107" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="E107" t="n">
-        <v>4.42</v>
+        <v>4.64</v>
       </c>
       <c r="F107" t="n">
-        <v>21.9725</v>
+        <v>18.1818</v>
       </c>
       <c r="G107" t="n">
-        <v>4.537000000000001</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4502,14 +4528,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +4540,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="C108" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="D108" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="E108" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="F108" t="n">
-        <v>5840.8182</v>
+        <v>14.8491</v>
       </c>
       <c r="G108" t="n">
-        <v>4.5305</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4544,14 +4564,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4562,22 +4576,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="C109" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="D109" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="E109" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="F109" t="n">
-        <v>409279.3034</v>
+        <v>1864.3857</v>
       </c>
       <c r="G109" t="n">
-        <v>4.525</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4586,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4604,40 +4612,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="C110" t="n">
-        <v>4.51</v>
+        <v>4.64</v>
       </c>
       <c r="D110" t="n">
-        <v>4.51</v>
+        <v>4.64</v>
       </c>
       <c r="E110" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="F110" t="n">
-        <v>67583.61410000001</v>
+        <v>3232.7586</v>
       </c>
       <c r="G110" t="n">
-        <v>4.518</v>
+        <v>-628909.685269229</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4648,40 +4648,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="C111" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="D111" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="E111" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="F111" t="n">
-        <v>35658.5472</v>
+        <v>1745.4302</v>
       </c>
       <c r="G111" t="n">
-        <v>4.513</v>
+        <v>-630655.1154692289</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4692,40 +4684,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="C112" t="n">
-        <v>4.51</v>
+        <v>4.64</v>
       </c>
       <c r="D112" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="E112" t="n">
-        <v>4.51</v>
+        <v>4.64</v>
       </c>
       <c r="F112" t="n">
-        <v>2597.4722</v>
+        <v>10775.862</v>
       </c>
       <c r="G112" t="n">
-        <v>4.508999999999999</v>
+        <v>-619879.253469229</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K112" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4736,40 +4720,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="C113" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="D113" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="E113" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F113" t="n">
-        <v>2421</v>
+        <v>50000</v>
       </c>
       <c r="G113" t="n">
-        <v>4.5025</v>
+        <v>-669879.253469229</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4780,40 +4756,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="C114" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="D114" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="E114" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F114" t="n">
-        <v>22400.6747</v>
+        <v>50799.136</v>
       </c>
       <c r="G114" t="n">
-        <v>4.497</v>
+        <v>-619080.117469229</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4824,40 +4792,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="C115" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="D115" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="E115" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F115" t="n">
-        <v>34643.0025</v>
+        <v>1522.0909</v>
       </c>
       <c r="G115" t="n">
-        <v>4.494</v>
+        <v>-620602.208369229</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4868,40 +4828,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="C116" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="D116" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="E116" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="F116" t="n">
-        <v>1650125.5268</v>
+        <v>189704.2334</v>
       </c>
       <c r="G116" t="n">
-        <v>4.493</v>
+        <v>-430897.974969229</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4912,40 +4864,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="C117" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="D117" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="E117" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>18.1818</v>
       </c>
       <c r="G117" t="n">
-        <v>4.495500000000001</v>
+        <v>-430879.7931692289</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4956,22 +4900,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C118" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="D118" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="E118" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="F118" t="n">
-        <v>2151</v>
+        <v>60018.1818</v>
       </c>
       <c r="G118" t="n">
-        <v>4.498500000000001</v>
+        <v>-430879.7931692289</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4980,14 +4924,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4998,22 +4936,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C119" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="D119" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E119" t="n">
-        <v>4.52</v>
+        <v>4.64</v>
       </c>
       <c r="F119" t="n">
-        <v>43.945</v>
+        <v>3058.2666</v>
       </c>
       <c r="G119" t="n">
-        <v>4.503500000000001</v>
+        <v>-433938.0597692289</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5022,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5040,42 +4972,1080 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>70.1713</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-434008.2310692289</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>4.6</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C121" t="n">
         <v>4.6</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D121" t="n">
         <v>4.6</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E121" t="n">
         <v>4.6</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F121" t="n">
+        <v>77.9091</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-434086.1401692289</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-434067.9583692289</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1727.1794</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-435795.1377692289</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F124" t="n">
+        <v>152236.2576</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-588031.3953692289</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F125" t="n">
+        <v>24580.0726</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-612611.4679692289</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F126" t="n">
+        <v>39846</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-652457.4679692289</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11930</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-664387.4679692289</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F128" t="n">
+        <v>257207.9297</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-921595.3976692288</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F129" t="n">
+        <v>42162.6961</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-963758.0937692288</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>84892.78126148797</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-878865.3125077408</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F131" t="n">
+        <v>112333.1447</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-991198.4572077408</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F132" t="n">
+        <v>85028.0056</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-991198.4572077408</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F133" t="n">
         <v>10</v>
       </c>
-      <c r="G120" t="n">
-        <v>4.513</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>-991188.4572077408</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F134" t="n">
+        <v>85028.0056</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1076216.462807741</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1076198.281007741</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21.9725</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1076220.253507741</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5840.8182</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1070379.435307741</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F138" t="n">
+        <v>409279.3034</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1070379.435307741</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>67583.61410000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1137963.049407741</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F140" t="n">
+        <v>35658.5472</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1102304.502207741</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2597.4722</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1104901.974407741</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2421</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1102480.974407741</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F143" t="n">
+        <v>22400.6747</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1102480.974407741</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F144" t="n">
+        <v>34643.0025</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1067837.971907741</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1650125.5268</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2717963.498707741</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2717953.498707741</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2151</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2715802.498707741</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F148" t="n">
+        <v>43.945</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2715846.44370774</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2715836.44370774</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>868980.9875907241</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +521,23 @@
         <v>821309.2215907241</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.4</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +562,21 @@
         <v>821509.2215907241</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,16 +603,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,22 +634,19 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,26 +671,21 @@
         <v>243072.2215907241</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>4.4</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,26 +710,23 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="J9" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K9" t="n">
         <v>4.4</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,16 +753,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,24 +784,15 @@
         <v>-1249443.469409276</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,20 +819,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,20 +852,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,20 +885,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,20 +918,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,20 +951,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1060,24 +982,21 @@
         <v>-1221013.469409276</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>4.3</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1102,24 +1021,19 @@
         <v>-1343819.333409276</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1144,24 +1058,21 @@
         <v>-1343819.333409276</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>4.34</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1188,20 +1099,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1226,24 +1134,21 @@
         <v>-1445153.519409276</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>4.37</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1268,24 +1173,21 @@
         <v>-1445153.519409276</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>4.3</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1310,24 +1212,21 @@
         <v>-1445135.337609276</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>4.3</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1352,24 +1251,19 @@
         <v>-1445117.155809276</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,24 +1288,19 @@
         <v>-1560144.315509276</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1438,20 +1327,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1478,20 +1364,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1518,20 +1401,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1556,22 +1436,21 @@
         <v>-1677873.451709276</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1596,22 +1475,21 @@
         <v>-1864641.244709276</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1636,22 +1514,21 @@
         <v>-1864641.244709276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1678,20 +1555,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1718,20 +1592,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1758,20 +1629,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1798,20 +1666,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1838,20 +1703,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1878,20 +1740,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1918,20 +1777,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1958,20 +1814,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1998,20 +1851,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2038,20 +1888,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2078,20 +1925,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2116,22 +1960,21 @@
         <v>-1901360.631509276</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2156,22 +1999,21 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2196,22 +2038,21 @@
         <v>-1896223.631509276</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2236,22 +2077,21 @@
         <v>-849773.0325092763</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2278,20 +2118,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2318,20 +2155,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2358,20 +2192,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2398,20 +2229,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2438,20 +2266,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2478,20 +2303,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2518,20 +2340,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2558,20 +2377,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2598,20 +2414,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2638,20 +2451,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2678,20 +2488,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2718,20 +2525,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2758,20 +2562,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2798,20 +2599,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2838,20 +2636,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2878,20 +2673,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2918,20 +2710,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2958,20 +2747,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2998,20 +2784,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3038,20 +2821,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3078,20 +2858,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3118,18 +2895,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,18 +2930,17 @@
         <v>-269224.0089692291</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3192,16 +2967,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3228,16 +3000,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,18 +3031,15 @@
         <v>-252879.4591692291</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3300,16 +3066,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3336,16 +3099,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3370,18 +3130,15 @@
         <v>-426816.4682692291</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3408,16 +3165,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3444,16 +3198,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3478,18 +3229,15 @@
         <v>-266377.9731692291</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3516,16 +3264,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3552,16 +3297,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3588,16 +3330,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3624,16 +3363,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3660,16 +3396,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3696,16 +3429,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3732,16 +3462,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3768,16 +3495,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3804,16 +3528,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3840,16 +3561,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3876,16 +3594,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3912,16 +3627,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3948,16 +3660,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3984,16 +3693,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4020,16 +3726,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4056,16 +3759,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4092,16 +3792,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4128,16 +3825,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4164,16 +3858,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4200,16 +3891,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4236,16 +3924,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4272,16 +3957,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4308,16 +3990,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4344,16 +4023,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4380,16 +4056,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4414,18 +4087,15 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4452,16 +4122,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4488,16 +4155,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4524,16 +4188,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4558,18 +4219,15 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4596,16 +4254,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4632,16 +4287,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4668,16 +4320,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4702,18 +4351,15 @@
         <v>-619879.253469229</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4738,18 +4384,15 @@
         <v>-669879.253469229</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4774,18 +4417,15 @@
         <v>-619080.117469229</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4812,16 +4452,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4846,18 +4483,15 @@
         <v>-430897.974969229</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4882,18 +4516,15 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4918,18 +4549,15 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4956,16 +4584,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4992,16 +4617,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5028,16 +4650,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5064,16 +4683,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5098,18 +4714,15 @@
         <v>-435795.1377692289</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5134,18 +4747,15 @@
         <v>-588031.3953692289</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5170,18 +4780,15 @@
         <v>-612611.4679692289</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5206,18 +4813,15 @@
         <v>-652457.4679692289</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5244,16 +4848,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5280,16 +4881,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5314,18 +4912,15 @@
         <v>-963758.0937692288</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5350,18 +4945,15 @@
         <v>-878865.3125077408</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5386,18 +4978,15 @@
         <v>-991198.4572077408</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5424,16 +5013,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5460,16 +5046,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5496,16 +5079,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5530,18 +5110,15 @@
         <v>-1076198.281007741</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5568,16 +5145,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5604,16 +5178,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5640,16 +5211,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5676,16 +5244,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5712,16 +5277,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5748,16 +5310,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5784,16 +5343,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5820,16 +5376,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5856,16 +5409,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5892,16 +5442,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5928,16 +5475,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5964,16 +5508,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6000,16 +5541,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6036,18 +5574,15 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>868980.9875907241</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>821309.2215907241</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -634,14 +616,10 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -674,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,19 +682,11 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -982,919 +946,815 @@
         <v>-1221013.469409276</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>122805.864</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1343819.333409276</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17516.0308</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1343819.333409276</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1343809.333409276</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>4.3</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="C21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>101344.186</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1445153.519409276</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>48655.814</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1445153.519409276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1445135.337609276</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1445117.155809276</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F25" t="n">
+        <v>115027.1597</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1560144.315509276</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F26" t="n">
+        <v>115424.4438</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1675568.759309276</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F27" t="n">
+        <v>703.0198</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1675568.759309276</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2314.6924</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1677883.451709276</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1677873.451709276</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F30" t="n">
+        <v>186767.793</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1864641.244709276</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F31" t="n">
+        <v>31741.3211</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1864641.244709276</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10203.6828</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1864641.244709276</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1864641.244709276</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.2584</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1864623.986309276</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1869623.986309276</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1869613.986309276</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7606.8321</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1877220.818409276</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F38" t="n">
+        <v>200</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1877220.818409276</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F39" t="n">
+        <v>86120</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1963340.818409276</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19186.3226</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1963340.818409276</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F41" t="n">
+        <v>94657.1869</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1868683.631509276</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F18" t="n">
-        <v>122805.864</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1343819.333409276</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F19" t="n">
-        <v>17516.0308</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-1343819.333409276</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-1343809.333409276</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>101344.186</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1445153.519409276</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>48655.814</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1445153.519409276</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F23" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-1445135.337609276</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F24" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1445117.155809276</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F25" t="n">
-        <v>115027.1597</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-1560144.315509276</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F26" t="n">
-        <v>115424.4438</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1675568.759309276</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F27" t="n">
-        <v>703.0198</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1675568.759309276</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2314.6924</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-1677883.451709276</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-1677873.451709276</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F30" t="n">
-        <v>186767.793</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F31" t="n">
-        <v>31741.3211</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F32" t="n">
-        <v>10203.6828</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F33" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17.2584</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-1864623.986309276</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-1869623.986309276</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-1869613.986309276</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F37" t="n">
-        <v>7606.8321</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-1877220.818409276</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F38" t="n">
-        <v>200</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-1877220.818409276</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F39" t="n">
-        <v>86120</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-1963340.818409276</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F40" t="n">
-        <v>19186.3226</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1963340.818409276</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F41" t="n">
-        <v>94657.1869</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-1868683.631509276</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1923,10 +1783,14 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,12 +1824,14 @@
         <v>-1901360.631509276</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>4.25</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,12 +1865,14 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>4.34</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,12 +1906,14 @@
         <v>-1896223.631509276</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>4.31</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2077,12 +1947,14 @@
         <v>-849773.0325092763</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>4.34</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,7 +1991,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,10 +2027,14 @@
         <v>-611650.2219092763</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2193,7 +2071,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,7 +2110,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2267,7 +2149,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2304,7 +2188,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,7 +2227,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,7 +2266,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2415,7 +2305,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,7 +2344,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2489,7 +2383,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,7 +2422,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,7 +2461,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,7 +2500,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2637,7 +2539,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,7 +2578,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2711,7 +2617,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,7 +2656,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,7 +2695,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,7 +2734,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,7 +2773,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,7 +2812,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2930,479 +2848,569 @@
         <v>-269224.0089692291</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F70" t="n">
+        <v>16344.5498</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-252879.4591692291</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F71" t="n">
+        <v>83899.8912</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-252879.4591692291</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-252879.4591692291</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F73" t="n">
+        <v>126818.4458</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-252879.4591692291</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F74" t="n">
+        <v>154393.7994</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-407273.258569229</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>19543.2097</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-426816.4682692291</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F76" t="n">
+        <v>21387.5213</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-448203.9895692291</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F77" t="n">
+        <v>181426.0164</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-266777.9731692291</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-266377.9731692291</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F79" t="n">
+        <v>35393.6021</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-230984.3710692291</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-230994.3710692291</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-230976.1892692291</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F82" t="n">
+        <v>767.2198</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-231743.4090692291</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F83" t="n">
+        <v>190</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-231933.4090692291</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F70" t="n">
-        <v>16344.5498</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F71" t="n">
-        <v>83899.8912</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F72" t="n">
-        <v>10</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F73" t="n">
-        <v>126818.4458</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D74" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E74" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F74" t="n">
-        <v>154393.7994</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-407273.258569229</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>19543.2097</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-426816.4682692291</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F76" t="n">
-        <v>21387.5213</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-448203.9895692291</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F77" t="n">
-        <v>181426.0164</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-266777.9731692291</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F78" t="n">
-        <v>400</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-266377.9731692291</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C79" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F79" t="n">
-        <v>35393.6021</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-230984.3710692291</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-230994.3710692291</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D81" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F81" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-230976.1892692291</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C82" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F82" t="n">
-        <v>767.2198</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-231743.4090692291</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="C83" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D83" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E83" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F83" t="n">
-        <v>190</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-231933.4090692291</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>1.089562647754137</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.072992700729927</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3460,7 +3468,7 @@
         <v>-928900.267969229</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3493,7 +3501,7 @@
         <v>-928688.721169229</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3526,7 +3534,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3559,7 +3567,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3823,7 +3831,7 @@
         <v>-742471.388869229</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3856,7 +3864,7 @@
         <v>-828658.140869229</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3889,7 +3897,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3922,7 +3930,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3955,7 +3963,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3988,7 +3996,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4021,7 +4029,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4054,7 +4062,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4087,7 +4095,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4120,7 +4128,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4153,7 +4161,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4186,7 +4194,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4219,7 +4227,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4252,7 +4260,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4285,7 +4293,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4318,7 +4326,7 @@
         <v>-630655.1154692289</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4351,7 +4359,7 @@
         <v>-619879.253469229</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4384,7 +4392,7 @@
         <v>-669879.253469229</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4417,7 +4425,7 @@
         <v>-619080.117469229</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4450,7 +4458,7 @@
         <v>-620602.208369229</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4483,7 +4491,7 @@
         <v>-430897.974969229</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4516,7 +4524,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4549,7 +4557,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4582,7 +4590,7 @@
         <v>-433938.0597692289</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4615,7 +4623,7 @@
         <v>-434008.2310692289</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4648,7 +4656,7 @@
         <v>-434086.1401692289</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4681,7 +4689,7 @@
         <v>-434067.9583692289</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4714,7 +4722,7 @@
         <v>-435795.1377692289</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4747,7 +4755,7 @@
         <v>-588031.3953692289</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4780,7 +4788,7 @@
         <v>-612611.4679692289</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4813,7 +4821,7 @@
         <v>-652457.4679692289</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4846,7 +4854,7 @@
         <v>-664387.4679692289</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4879,7 +4887,7 @@
         <v>-921595.3976692288</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4912,7 +4920,7 @@
         <v>-963758.0937692288</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4945,7 +4953,7 @@
         <v>-878865.3125077408</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4978,7 +4986,7 @@
         <v>-991198.4572077408</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5011,7 +5019,7 @@
         <v>-991198.4572077408</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5044,7 +5052,7 @@
         <v>-991188.4572077408</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5077,7 +5085,7 @@
         <v>-1076216.462807741</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5110,7 +5118,7 @@
         <v>-1076198.281007741</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5583,6 +5591,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>868970.9875907241</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>868980.9875907241</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>821309.2215907241</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>821509.2215907241</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>243072.2215907241</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1249443.469409276</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1249203.469409276</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1705,14 +1705,10 @@
         <v>-1963340.818409276</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1742,19 +1738,11 @@
         <v>-1868683.631509276</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1783,19 +1771,11 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,19 +1804,11 @@
         <v>-1901360.631509276</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1865,19 +1837,11 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1906,19 +1870,11 @@
         <v>-1896223.631509276</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1947,19 +1903,11 @@
         <v>-849773.0325092763</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2027,19 +1969,11 @@
         <v>-611650.2219092763</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2110,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2149,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2188,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2227,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2266,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2302,17 +2200,11 @@
         <v>719102.8598907237</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2383,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2419,17 +2299,11 @@
         <v>28333.88529072376</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2458,17 +2332,11 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2497,17 +2365,11 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2812,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2890,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2965,17 +2761,11 @@
         <v>-252879.4591692291</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3160,17 +2926,11 @@
         <v>-266777.9731692291</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3199,17 +2959,11 @@
         <v>-266377.9731692291</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3238,17 +2992,11 @@
         <v>-230984.3710692291</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3394,23 +3124,15 @@
         <v>-231933.4090692291</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.089562647754137</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.072992700729927</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,7 +3190,7 @@
         <v>-928900.267969229</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3501,7 +3223,7 @@
         <v>-928688.721169229</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3534,7 +3256,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3567,7 +3289,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3600,7 +3322,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3633,7 +3355,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3666,7 +3388,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3699,7 +3421,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3732,7 +3454,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3831,7 +3553,7 @@
         <v>-742471.388869229</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3864,7 +3586,7 @@
         <v>-828658.140869229</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3897,7 +3619,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3930,7 +3652,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3963,7 +3685,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3996,7 +3718,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4029,7 +3751,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4062,7 +3784,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4095,7 +3817,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4128,7 +3850,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4161,7 +3883,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4194,7 +3916,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4227,7 +3949,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4260,7 +3982,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4293,7 +4015,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4326,7 +4048,7 @@
         <v>-630655.1154692289</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4359,7 +4081,7 @@
         <v>-619879.253469229</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4392,7 +4114,7 @@
         <v>-669879.253469229</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4425,7 +4147,7 @@
         <v>-619080.117469229</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4458,7 +4180,7 @@
         <v>-620602.208369229</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4491,7 +4213,7 @@
         <v>-430897.974969229</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4524,7 +4246,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4557,7 +4279,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4590,7 +4312,7 @@
         <v>-433938.0597692289</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4623,7 +4345,7 @@
         <v>-434008.2310692289</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4656,7 +4378,7 @@
         <v>-434086.1401692289</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4689,7 +4411,7 @@
         <v>-434067.9583692289</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4722,7 +4444,7 @@
         <v>-435795.1377692289</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4755,7 +4477,7 @@
         <v>-588031.3953692289</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4788,7 +4510,7 @@
         <v>-612611.4679692289</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4821,7 +4543,7 @@
         <v>-652457.4679692289</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4854,7 +4576,7 @@
         <v>-664387.4679692289</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4887,7 +4609,7 @@
         <v>-921595.3976692288</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4920,7 +4642,7 @@
         <v>-963758.0937692288</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4953,7 +4675,7 @@
         <v>-878865.3125077408</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4986,7 +4708,7 @@
         <v>-991198.4572077408</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5019,7 +4741,7 @@
         <v>-991198.4572077408</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5052,7 +4774,7 @@
         <v>-991188.4572077408</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5085,7 +4807,7 @@
         <v>-1076216.462807741</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5316,11 +5038,17 @@
         <v>-1104901.974407741</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +5077,17 @@
         <v>-1102480.974407741</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +5116,17 @@
         <v>-1102480.974407741</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5155,17 @@
         <v>-1067837.971907741</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +5194,17 @@
         <v>-2717963.498707741</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5485,7 +5237,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5274,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5547,11 +5307,17 @@
         <v>-2715846.44370774</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5580,17 +5346,23 @@
         <v>-2715836.44370774</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -451,7 +451,7 @@
         <v>868970.9875907241</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>868980.9875907241</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>821309.2215907241</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>821509.2215907241</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>243072.2215907241</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1249443.469409276</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1249203.469409276</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1705,10 +1705,14 @@
         <v>-1963340.818409276</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1738,11 +1742,19 @@
         <v>-1868683.631509276</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1783,19 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1824,19 @@
         <v>-1901360.631509276</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1865,19 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1906,19 @@
         <v>-1896223.631509276</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1947,19 @@
         <v>-849773.0325092763</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2300,17 @@
         <v>719102.8598907237</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2417,17 @@
         <v>28333.88529072376</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2456,17 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2495,17 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,15 +2807,23 @@
         <v>-269214.0089692291</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>1.075378250591017</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.072992700729927</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2761,7 +2947,7 @@
         <v>-252879.4591692291</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2926,7 +3112,7 @@
         <v>-266777.9731692291</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3211,7 @@
         <v>-230994.3710692291</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3244,7 @@
         <v>-230976.1892692291</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3277,7 @@
         <v>-231743.4090692291</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3310,7 @@
         <v>-231933.4090692291</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3343,7 @@
         <v>-258900.0215692291</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3376,7 @@
         <v>-928900.267969229</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3409,7 @@
         <v>-928688.721169229</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3442,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3475,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3508,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3541,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3574,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3607,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3640,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3619,7 +3805,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3838,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3871,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3904,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3937,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3970,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4003,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4036,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4069,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4102,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4135,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4168,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4201,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4234,7 @@
         <v>-630655.1154692289</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4267,7 @@
         <v>-619879.253469229</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4300,7 @@
         <v>-669879.253469229</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4333,7 @@
         <v>-619080.117469229</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4366,7 @@
         <v>-620602.208369229</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4399,7 @@
         <v>-430897.974969229</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4432,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4465,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4498,7 @@
         <v>-433938.0597692289</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4531,7 @@
         <v>-434008.2310692289</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4564,7 @@
         <v>-434086.1401692289</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4597,7 @@
         <v>-434067.9583692289</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4630,7 @@
         <v>-435795.1377692289</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4663,7 @@
         <v>-588031.3953692289</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4696,7 @@
         <v>-612611.4679692289</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4729,7 @@
         <v>-652457.4679692289</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4762,7 @@
         <v>-664387.4679692289</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4795,7 @@
         <v>-921595.3976692288</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,11 +4861,17 @@
         <v>-878865.3125077408</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4.41</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4904,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4941,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4974,17 @@
         <v>-991188.4572077408</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.36</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5017,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5050,17 @@
         <v>-1076198.281007741</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.38</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5093,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5130,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5167,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5204,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5237,17 @@
         <v>-1102304.502207741</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5046,7 +5284,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5116,11 +5354,9 @@
         <v>-1102480.974407741</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5194,11 +5430,9 @@
         <v>-2717963.498707741</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5307,11 +5541,9 @@
         <v>-2715846.44370774</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>4.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5346,11 +5578,9 @@
         <v>-2715836.44370774</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>

--- a/BackTest/2019-10-29 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-29 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>133494.0347</v>
       </c>
       <c r="G2" t="n">
-        <v>868970.9875907241</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>868980.9875907241</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>47671.766</v>
       </c>
       <c r="G4" t="n">
-        <v>821309.2215907241</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>821509.2215907241</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,19 @@
         <v>578447</v>
       </c>
       <c r="G6" t="n">
-        <v>243062.2215907241</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.41</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>113817.972</v>
       </c>
       <c r="G7" t="n">
-        <v>243062.2215907241</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>243072.2215907241</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,19 @@
         <v>2509.425</v>
       </c>
       <c r="G9" t="n">
-        <v>240562.7965907241</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.41</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +723,21 @@
         <v>110000</v>
       </c>
       <c r="G10" t="n">
-        <v>240562.7965907241</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +759,21 @@
         <v>1490006.266</v>
       </c>
       <c r="G11" t="n">
-        <v>-1249443.469409276</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +795,23 @@
         <v>240</v>
       </c>
       <c r="G12" t="n">
-        <v>-1249203.469409276</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>4.11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-1249213.469409276</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>-1249195.469409276</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>-1249213.469409276</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>81830.27959999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1249213.469409276</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>28200</v>
       </c>
       <c r="G17" t="n">
-        <v>-1221013.469409276</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>122805.864</v>
       </c>
       <c r="G18" t="n">
-        <v>-1343819.333409276</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,21 @@
         <v>17516.0308</v>
       </c>
       <c r="G19" t="n">
-        <v>-1343819.333409276</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>-1343809.333409276</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,23 @@
         <v>101344.186</v>
       </c>
       <c r="G21" t="n">
-        <v>-1445153.519409276</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>4.37</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1159,21 @@
         <v>48655.814</v>
       </c>
       <c r="G22" t="n">
-        <v>-1445153.519409276</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1195,23 @@
         <v>18.1818</v>
       </c>
       <c r="G23" t="n">
-        <v>-1445135.337609276</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1233,23 @@
         <v>18.1818</v>
       </c>
       <c r="G24" t="n">
-        <v>-1445117.155809276</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>4.36</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1271,21 @@
         <v>115027.1597</v>
       </c>
       <c r="G25" t="n">
-        <v>-1560144.315509276</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1307,21 @@
         <v>115424.4438</v>
       </c>
       <c r="G26" t="n">
-        <v>-1675568.759309276</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1343,21 @@
         <v>703.0198</v>
       </c>
       <c r="G27" t="n">
-        <v>-1675568.759309276</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1379,21 @@
         <v>2314.6924</v>
       </c>
       <c r="G28" t="n">
-        <v>-1677883.451709276</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1415,21 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>-1677873.451709276</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1451,21 @@
         <v>186767.793</v>
       </c>
       <c r="G30" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1487,21 @@
         <v>31741.3211</v>
       </c>
       <c r="G31" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1523,21 @@
         <v>10203.6828</v>
       </c>
       <c r="G32" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1559,21 @@
         <v>12000</v>
       </c>
       <c r="G33" t="n">
-        <v>-1864641.244709276</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1595,21 @@
         <v>17.2584</v>
       </c>
       <c r="G34" t="n">
-        <v>-1864623.986309276</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1631,21 @@
         <v>5000</v>
       </c>
       <c r="G35" t="n">
-        <v>-1869623.986309276</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1667,21 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-1869613.986309276</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1703,21 @@
         <v>7606.8321</v>
       </c>
       <c r="G37" t="n">
-        <v>-1877220.818409276</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1739,21 @@
         <v>200</v>
       </c>
       <c r="G38" t="n">
-        <v>-1877220.818409276</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1775,21 @@
         <v>86120</v>
       </c>
       <c r="G39" t="n">
-        <v>-1963340.818409276</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,22 +1811,21 @@
         <v>19186.3226</v>
       </c>
       <c r="G40" t="n">
-        <v>-1963340.818409276</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1739,26 +1847,21 @@
         <v>94657.1869</v>
       </c>
       <c r="G41" t="n">
-        <v>-1868683.631509276</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1780,26 +1883,21 @@
         <v>32777</v>
       </c>
       <c r="G42" t="n">
-        <v>-1901460.631509276</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,26 +1919,21 @@
         <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>-1901360.631509276</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1862,26 +1955,21 @@
         <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>-1901460.631509276</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1903,26 +1991,21 @@
         <v>5237</v>
       </c>
       <c r="G45" t="n">
-        <v>-1896223.631509276</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1944,26 +2027,21 @@
         <v>1046450.599</v>
       </c>
       <c r="G46" t="n">
-        <v>-849773.0325092763</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1985,24 +2063,21 @@
         <v>7000</v>
       </c>
       <c r="G47" t="n">
-        <v>-842773.0325092763</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2024,24 +2099,21 @@
         <v>231122.8106</v>
       </c>
       <c r="G48" t="n">
-        <v>-611650.2219092763</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2063,24 +2135,21 @@
         <v>359460.7954</v>
       </c>
       <c r="G49" t="n">
-        <v>-252189.4265092763</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2102,24 +2171,21 @@
         <v>60000</v>
       </c>
       <c r="G50" t="n">
-        <v>-192189.4265092763</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2141,24 +2207,21 @@
         <v>109829.6164</v>
       </c>
       <c r="G51" t="n">
-        <v>-82359.81010927632</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2180,24 +2243,21 @@
         <v>37293.021</v>
       </c>
       <c r="G52" t="n">
-        <v>-119652.8311092763</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2219,24 +2279,21 @@
         <v>2033.3502</v>
       </c>
       <c r="G53" t="n">
-        <v>-119652.8311092763</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2258,24 +2315,21 @@
         <v>735310.9674</v>
       </c>
       <c r="G54" t="n">
-        <v>615658.1362907237</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2297,24 +2351,21 @@
         <v>103444.7236</v>
       </c>
       <c r="G55" t="n">
-        <v>719102.8598907237</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2336,24 +2387,21 @@
         <v>147240.3646</v>
       </c>
       <c r="G56" t="n">
-        <v>571862.4952907237</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2375,24 +2423,21 @@
         <v>416949.5081</v>
       </c>
       <c r="G57" t="n">
-        <v>988812.0033907237</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,24 +2459,21 @@
         <v>960478.1181</v>
       </c>
       <c r="G58" t="n">
-        <v>28333.88529072376</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2453,24 +2495,21 @@
         <v>35</v>
       </c>
       <c r="G59" t="n">
-        <v>28298.88529072376</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,24 +2531,21 @@
         <v>22344.4285</v>
       </c>
       <c r="G60" t="n">
-        <v>28298.88529072376</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2531,24 +2567,21 @@
         <v>77576.94160000001</v>
       </c>
       <c r="G61" t="n">
-        <v>105875.8268907238</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2570,24 +2603,21 @@
         <v>14947.0225</v>
       </c>
       <c r="G62" t="n">
-        <v>120822.8493907238</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2609,24 +2639,21 @@
         <v>167288.4828</v>
       </c>
       <c r="G63" t="n">
-        <v>288111.3321907237</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2648,24 +2675,21 @@
         <v>215578.5800678959</v>
       </c>
       <c r="G64" t="n">
-        <v>503689.9122586197</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2687,24 +2711,21 @@
         <v>538557.9690957447</v>
       </c>
       <c r="G65" t="n">
-        <v>-34868.05683712498</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2726,24 +2747,21 @@
         <v>234350.9521321041</v>
       </c>
       <c r="G66" t="n">
-        <v>-269219.0089692291</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2765,24 +2783,21 @@
         <v>15</v>
       </c>
       <c r="G67" t="n">
-        <v>-269204.0089692291</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2804,26 +2819,21 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>-269214.0089692291</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1.075378250591017</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.072992700729927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2845,18 +2855,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-269224.0089692291</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2878,18 +2891,21 @@
         <v>16344.5498</v>
       </c>
       <c r="G70" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2911,18 +2927,21 @@
         <v>83899.8912</v>
       </c>
       <c r="G71" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2944,18 +2963,21 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2977,18 +2999,21 @@
         <v>126818.4458</v>
       </c>
       <c r="G73" t="n">
-        <v>-252879.4591692291</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3010,18 +3035,21 @@
         <v>154393.7994</v>
       </c>
       <c r="G74" t="n">
-        <v>-407273.258569229</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3043,18 +3071,21 @@
         <v>19543.2097</v>
       </c>
       <c r="G75" t="n">
-        <v>-426816.4682692291</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3076,18 +3107,21 @@
         <v>21387.5213</v>
       </c>
       <c r="G76" t="n">
-        <v>-448203.9895692291</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3109,18 +3143,21 @@
         <v>181426.0164</v>
       </c>
       <c r="G77" t="n">
-        <v>-266777.9731692291</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3142,18 +3179,21 @@
         <v>400</v>
       </c>
       <c r="G78" t="n">
-        <v>-266377.9731692291</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,18 +3215,21 @@
         <v>35393.6021</v>
       </c>
       <c r="G79" t="n">
-        <v>-230984.3710692291</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3208,18 +3251,21 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-230994.3710692291</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3241,18 +3287,21 @@
         <v>18.1818</v>
       </c>
       <c r="G81" t="n">
-        <v>-230976.1892692291</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3274,18 +3323,21 @@
         <v>767.2198</v>
       </c>
       <c r="G82" t="n">
-        <v>-231743.4090692291</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3307,18 +3359,21 @@
         <v>190</v>
       </c>
       <c r="G83" t="n">
-        <v>-231933.4090692291</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3340,18 +3395,21 @@
         <v>26966.6125</v>
       </c>
       <c r="G84" t="n">
-        <v>-258900.0215692291</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3373,18 +3431,21 @@
         <v>670000.2463999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-928900.267969229</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3406,18 +3467,21 @@
         <v>211.5468</v>
       </c>
       <c r="G86" t="n">
-        <v>-928688.721169229</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3439,18 +3503,21 @@
         <v>40197.9257</v>
       </c>
       <c r="G87" t="n">
-        <v>-968886.646869229</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,18 +3539,21 @@
         <v>1936.4628</v>
       </c>
       <c r="G88" t="n">
-        <v>-968886.646869229</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3505,18 +3575,21 @@
         <v>18.1818</v>
       </c>
       <c r="G89" t="n">
-        <v>-968886.646869229</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3538,18 +3611,21 @@
         <v>4848</v>
       </c>
       <c r="G90" t="n">
-        <v>-964038.646869229</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3571,18 +3647,21 @@
         <v>69730.9368</v>
       </c>
       <c r="G91" t="n">
-        <v>-964038.646869229</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3604,18 +3683,21 @@
         <v>47723.4267</v>
       </c>
       <c r="G92" t="n">
-        <v>-916315.2201692291</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3637,18 +3719,21 @@
         <v>4610.1818</v>
       </c>
       <c r="G93" t="n">
-        <v>-916315.2201692291</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3670,18 +3755,21 @@
         <v>19963.6364</v>
       </c>
       <c r="G94" t="n">
-        <v>-916315.2201692291</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3703,18 +3791,21 @@
         <v>5004.013</v>
       </c>
       <c r="G95" t="n">
-        <v>-911311.207169229</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3736,18 +3827,21 @@
         <v>168839.8183</v>
       </c>
       <c r="G96" t="n">
-        <v>-742471.388869229</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3769,18 +3863,21 @@
         <v>86186.75199999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-828658.140869229</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3802,18 +3899,21 @@
         <v>199733.4772</v>
       </c>
       <c r="G98" t="n">
-        <v>-628924.663669229</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3835,18 +3935,21 @@
         <v>21977.5772</v>
       </c>
       <c r="G99" t="n">
-        <v>-628924.663669229</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3868,18 +3971,21 @@
         <v>82101.2316</v>
       </c>
       <c r="G100" t="n">
-        <v>-628924.663669229</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3901,18 +4007,21 @@
         <v>159216.8858</v>
       </c>
       <c r="G101" t="n">
-        <v>-628924.663669229</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3934,18 +4043,21 @@
         <v>14.9784</v>
       </c>
       <c r="G102" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3967,18 +4079,21 @@
         <v>264</v>
       </c>
       <c r="G103" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4000,18 +4115,21 @@
         <v>3572.418</v>
       </c>
       <c r="G104" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4033,18 +4151,21 @@
         <v>297</v>
       </c>
       <c r="G105" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4066,18 +4187,21 @@
         <v>165</v>
       </c>
       <c r="G106" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4099,18 +4223,21 @@
         <v>18.1818</v>
       </c>
       <c r="G107" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4132,18 +4259,21 @@
         <v>14.8491</v>
       </c>
       <c r="G108" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4165,18 +4295,21 @@
         <v>1864.3857</v>
       </c>
       <c r="G109" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4198,18 +4331,21 @@
         <v>3232.7586</v>
       </c>
       <c r="G110" t="n">
-        <v>-628909.685269229</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4231,18 +4367,21 @@
         <v>1745.4302</v>
       </c>
       <c r="G111" t="n">
-        <v>-630655.1154692289</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4264,18 +4403,21 @@
         <v>10775.862</v>
       </c>
       <c r="G112" t="n">
-        <v>-619879.253469229</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4297,18 +4439,21 @@
         <v>50000</v>
       </c>
       <c r="G113" t="n">
-        <v>-669879.253469229</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4330,18 +4475,21 @@
         <v>50799.136</v>
       </c>
       <c r="G114" t="n">
-        <v>-619080.117469229</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1.044886621315193</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4363,18 +4511,15 @@
         <v>1522.0909</v>
       </c>
       <c r="G115" t="n">
-        <v>-620602.208369229</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4396,18 +4541,15 @@
         <v>189704.2334</v>
       </c>
       <c r="G116" t="n">
-        <v>-430897.974969229</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4429,18 +4571,15 @@
         <v>18.1818</v>
       </c>
       <c r="G117" t="n">
-        <v>-430879.7931692289</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4462,18 +4601,15 @@
         <v>60018.1818</v>
       </c>
       <c r="G118" t="n">
-        <v>-430879.7931692289</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4495,18 +4631,15 @@
         <v>3058.2666</v>
       </c>
       <c r="G119" t="n">
-        <v>-433938.0597692289</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4528,18 +4661,15 @@
         <v>70.1713</v>
       </c>
       <c r="G120" t="n">
-        <v>-434008.2310692289</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4561,18 +4691,15 @@
         <v>77.9091</v>
       </c>
       <c r="G121" t="n">
-        <v>-434086.1401692289</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4594,18 +4721,15 @@
         <v>18.1818</v>
       </c>
       <c r="G122" t="n">
-        <v>-434067.9583692289</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4627,18 +4751,15 @@
         <v>1727.1794</v>
       </c>
       <c r="G123" t="n">
-        <v>-435795.1377692289</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4660,18 +4781,15 @@
         <v>152236.2576</v>
       </c>
       <c r="G124" t="n">
-        <v>-588031.3953692289</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4693,18 +4811,15 @@
         <v>24580.0726</v>
       </c>
       <c r="G125" t="n">
-        <v>-612611.4679692289</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4726,18 +4841,15 @@
         <v>39846</v>
       </c>
       <c r="G126" t="n">
-        <v>-652457.4679692289</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4759,18 +4871,15 @@
         <v>11930</v>
       </c>
       <c r="G127" t="n">
-        <v>-664387.4679692289</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4792,18 +4901,15 @@
         <v>257207.9297</v>
       </c>
       <c r="G128" t="n">
-        <v>-921595.3976692288</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4825,18 +4931,15 @@
         <v>42162.6961</v>
       </c>
       <c r="G129" t="n">
-        <v>-963758.0937692288</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4858,24 +4961,15 @@
         <v>84892.78126148797</v>
       </c>
       <c r="G130" t="n">
-        <v>-878865.3125077408</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>4.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4897,22 +4991,15 @@
         <v>112333.1447</v>
       </c>
       <c r="G131" t="n">
-        <v>-991198.4572077408</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4934,22 +5021,15 @@
         <v>85028.0056</v>
       </c>
       <c r="G132" t="n">
-        <v>-991198.4572077408</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4971,24 +5051,15 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-991188.4572077408</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5010,22 +5081,15 @@
         <v>85028.0056</v>
       </c>
       <c r="G134" t="n">
-        <v>-1076216.462807741</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5047,24 +5111,15 @@
         <v>18.1818</v>
       </c>
       <c r="G135" t="n">
-        <v>-1076198.281007741</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5086,22 +5141,15 @@
         <v>21.9725</v>
       </c>
       <c r="G136" t="n">
-        <v>-1076220.253507741</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5123,22 +5171,15 @@
         <v>5840.8182</v>
       </c>
       <c r="G137" t="n">
-        <v>-1070379.435307741</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5160,22 +5201,15 @@
         <v>409279.3034</v>
       </c>
       <c r="G138" t="n">
-        <v>-1070379.435307741</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5197,22 +5231,15 @@
         <v>67583.61410000001</v>
       </c>
       <c r="G139" t="n">
-        <v>-1137963.049407741</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5234,24 +5261,15 @@
         <v>35658.5472</v>
       </c>
       <c r="G140" t="n">
-        <v>-1102304.502207741</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5273,24 +5291,15 @@
         <v>2597.4722</v>
       </c>
       <c r="G141" t="n">
-        <v>-1104901.974407741</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5312,24 +5321,15 @@
         <v>2421</v>
       </c>
       <c r="G142" t="n">
-        <v>-1102480.974407741</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5351,22 +5351,15 @@
         <v>22400.6747</v>
       </c>
       <c r="G143" t="n">
-        <v>-1102480.974407741</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5388,24 +5381,15 @@
         <v>34643.0025</v>
       </c>
       <c r="G144" t="n">
-        <v>-1067837.971907741</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5427,22 +5411,15 @@
         <v>1650125.5268</v>
       </c>
       <c r="G145" t="n">
-        <v>-2717963.498707741</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5464,22 +5441,15 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>-2717953.498707741</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5501,22 +5471,15 @@
         <v>2151</v>
       </c>
       <c r="G147" t="n">
-        <v>-2715802.498707741</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5538,22 +5501,15 @@
         <v>43.945</v>
       </c>
       <c r="G148" t="n">
-        <v>-2715846.44370774</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5575,22 +5531,15 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>-2715836.44370774</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
